--- a/manuscripts/WASH_IPD_bias_assessment.xlsx
+++ b/manuscripts/WASH_IPD_bias_assessment.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\wash-ipd\manuscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835BE218-33E0-4D00-BF3F-6B67AE2B0D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752FC6BE-5D04-4FA9-A906-34D46599A341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sanitation" sheetId="1" r:id="rId1"/>
+    <sheet name="aim1" sheetId="1" r:id="rId1"/>
+    <sheet name="aim2" sheetId="2" r:id="rId2"/>
+    <sheet name="full" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -28,12 +30,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={590C79F4-2CE9-4099-A8A2-3F068B296305}</author>
-    <author>tc={F8F90183-611B-4C40-A02D-0B05DE3656EE}</author>
     <author>tc={1B714ED4-7250-4E9E-80CC-554D5EBBFFCA}</author>
-    <author>tc={29D8DE45-563F-45B9-BF3C-7537EBA3665C}</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{590C79F4-2CE9-4099-A8A2-3F068B296305}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{590C79F4-2CE9-4099-A8A2-3F068B296305}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -41,7 +41,26 @@
     change for aim-1</t>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{F8F90183-611B-4C40-A02D-0B05DE3656EE}">
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{1B714ED4-7250-4E9E-80CC-554D5EBBFFCA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Or cite https://elifesciences.org/articles/62278#s2</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={92A9013E-B641-44A0-899A-1D4F070F984F}</author>
+    <author>tc={748E6F0E-5BDF-44D8-86BF-A0DB7A1E7EFC}</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{92A9013E-B641-44A0-899A-1D4F070F984F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +68,7 @@
     change for aim-1</t>
       </text>
     </comment>
-    <comment ref="A8" authorId="2" shapeId="0" xr:uid="{1B714ED4-7250-4E9E-80CC-554D5EBBFFCA}">
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{748E6F0E-5BDF-44D8-86BF-A0DB7A1E7EFC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +76,44 @@
     Or cite https://elifesciences.org/articles/62278#s2</t>
       </text>
     </comment>
-    <comment ref="B8" authorId="3" shapeId="0" xr:uid="{29D8DE45-563F-45B9-BF3C-7537EBA3665C}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={55176D23-FE0E-4B4C-B88D-229484F5D259}</author>
+    <author>tc={7B6CE6AB-FC8C-4280-AD4C-0787C34F6A96}</author>
+    <author>tc={8973E9CC-90F5-4EDA-88B6-2355B70CDEFB}</author>
+    <author>tc={02DFCF28-60D8-491A-B5F7-182EF0BAC074}</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{55176D23-FE0E-4B4C-B88D-229484F5D259}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    change for aim-1</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{7B6CE6AB-FC8C-4280-AD4C-0787C34F6A96}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    change for aim-1</t>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="2" shapeId="0" xr:uid="{8973E9CC-90F5-4EDA-88B6-2355B70CDEFB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Or cite https://elifesciences.org/articles/62278#s2</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="3" shapeId="0" xr:uid="{02DFCF28-60D8-491A-B5F7-182EF0BAC074}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="63">
   <si>
     <t>Selection bias</t>
   </si>
@@ -270,9 +326,6 @@
     <t>Reese, H., Routray, P., Torondel, B., Sinharoy, S.S., Mishra, S., Freeman, M.C., Chang, H.H., Clasen, T., 2019. Assessing longer-term effectiveness of a combined household-level piped water and sanitation intervention on child diarrhoea, acute respiratory infection, soil-transmitted helminth infection and nutritional status: a matched cohort study in rural Odisha, India. International journal of epidemiology. https://doi.org/10.1093/ije/dyz157</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
     <t>Risk of bias assessment for intervention studies</t>
   </si>
   <si>
@@ -319,6 +372,63 @@
   </si>
   <si>
     <t>Health Outcome measurement</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>selection bias is possible, as the study is not randomized, but  intervention and control groups were mostly balanced at baseline. Control households were more likely to have covered floors and higher quality walls and intervention groups had more people per household.</t>
+  </si>
+  <si>
+    <t>Response bias</t>
+  </si>
+  <si>
+    <t>Outcome assessment</t>
+  </si>
+  <si>
+    <t>Outcome measurement</t>
+  </si>
+  <si>
+    <t>Clasen T, et al. Effectiveness of a rural sanitation programme on diarrhoea, soil-transmitted helminth infection, and child malnutrition in Odisha, India: a cluster-randomised trial. Lancet Glob Health. 2014.</t>
+  </si>
+  <si>
+    <t>Luby, S.P. et al.. Effects of water quality, sanitation, handwashing, and nutritional interventions on diarrhoea and child growth in rural Bangladesh: a cluster randomised controlled trial. The Lancet Global Health 2018</t>
+  </si>
+  <si>
+    <t>Null, C. et al., Effects of water quality, sanitation, handwashing, and nutritional interventions on diarrhoea and child growth in rural Kenya: a cluster-randomised controlled trial. The Lancet Global Health 2018</t>
+  </si>
+  <si>
+    <t>Reese, H. et al. Assessing longer-term effectiveness of a combined household-level piped water and sanitation intervention on child diarrhoea, acute respiratory infection, soil-transmitted helminth infection and nutritional status: a matched cohort study in rural Odisha, India. International journal of epidemiology 2019</t>
+  </si>
+  <si>
+    <t>Knee, J. et al. Effects of an urban sanitation intervention on childhood enteric infection and diarrhea in Maputo, Mozambique: A controlled before-and-after trial. eLife 2011</t>
+  </si>
+  <si>
+    <t>Total number of stars (x/9 possible stars).</t>
+  </si>
+  <si>
+    <t>Is there evidence that analysis was not appropriately adjusted for clustering and/or confounding, if appropriate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there evidence of ascertainment bias? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there evidence of bias arising from how the outcome was assessed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there risk of households not receiving the intervention being misclassified as having received it, or vice versa? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there evidence of bias due to missing follow-up data? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there evidence of response bias? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there evidence of selection bias, which refers to systematic differences between baseline characteristics of the groups that are compared? </t>
   </si>
 </sst>
 </file>
@@ -441,13 +551,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -764,16 +871,38 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G2" dT="2022-05-09T19:34:08.79" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{590C79F4-2CE9-4099-A8A2-3F068B296305}">
+  <threadedComment ref="F1" dT="2022-05-09T19:34:08.79" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{590C79F4-2CE9-4099-A8A2-3F068B296305}">
     <text>change for aim-1</text>
   </threadedComment>
-  <threadedComment ref="H2" dT="2022-05-09T19:34:08.79" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{F8F90183-611B-4C40-A02D-0B05DE3656EE}">
+  <threadedComment ref="A7" dT="2022-05-09T20:54:31.04" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{1B714ED4-7250-4E9E-80CC-554D5EBBFFCA}">
+    <text>Or cite https://elifesciences.org/articles/62278#s2</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" dT="2022-05-09T19:34:08.79" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{92A9013E-B641-44A0-899A-1D4F070F984F}">
     <text>change for aim-1</text>
   </threadedComment>
-  <threadedComment ref="A8" dT="2022-05-09T20:54:31.04" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{1B714ED4-7250-4E9E-80CC-554D5EBBFFCA}">
+  <threadedComment ref="A7" dT="2022-05-09T20:54:31.04" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{748E6F0E-5BDF-44D8-86BF-A0DB7A1E7EFC}">
     <text>Or cite https://elifesciences.org/articles/62278#s2</text>
   </threadedComment>
-  <threadedComment ref="B8" dT="2022-05-09T03:30:09.97" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{29D8DE45-563F-45B9-BF3C-7537EBA3665C}">
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2022-05-09T19:34:08.79" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{55176D23-FE0E-4B4C-B88D-229484F5D259}">
+    <text>change for aim-1</text>
+  </threadedComment>
+  <threadedComment ref="H2" dT="2022-05-09T19:34:08.79" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{7B6CE6AB-FC8C-4280-AD4C-0787C34F6A96}">
+    <text>change for aim-1</text>
+  </threadedComment>
+  <threadedComment ref="A8" dT="2022-05-09T20:54:31.04" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{8973E9CC-90F5-4EDA-88B6-2355B70CDEFB}">
+    <text>Or cite https://elifesciences.org/articles/62278#s2</text>
+  </threadedComment>
+  <threadedComment ref="B8" dT="2022-05-09T03:30:09.97" personId="{31DAD728-BDC7-49D0-B0C4-7E8AC8EC293E}" id="{02DFCF28-60D8-491A-B5F7-182EF0BAC074}">
     <text>check</text>
   </threadedComment>
 </ThreadedComments>
@@ -781,327 +910,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="4" width="77.85546875" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" customWidth="1"/>
-    <col min="6" max="6" width="68.85546875" customWidth="1"/>
-    <col min="7" max="8" width="57.42578125" customWidth="1"/>
-    <col min="9" max="10" width="64.7109375" customWidth="1"/>
-    <col min="11" max="11" width="65.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
+    <col min="2" max="2" width="54.41796875" customWidth="1"/>
+    <col min="3" max="3" width="77.83984375" customWidth="1"/>
+    <col min="4" max="4" width="62.68359375" customWidth="1"/>
+    <col min="5" max="5" width="68.83984375" customWidth="1"/>
+    <col min="6" max="6" width="57.41796875" customWidth="1"/>
+    <col min="7" max="7" width="64.68359375" customWidth="1"/>
+    <col min="8" max="8" width="65.41796875" customWidth="1"/>
+    <col min="9" max="9" width="20.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7">
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="M7" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N8">
-    <sortCondition ref="A4:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J7">
+    <sortCondition ref="A3:A7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678BFB47-366F-410E-B406-893762EB5943}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
+    <col min="2" max="2" width="54.41796875" customWidth="1"/>
+    <col min="3" max="3" width="77.83984375" customWidth="1"/>
+    <col min="4" max="4" width="62.68359375" customWidth="1"/>
+    <col min="5" max="5" width="68.83984375" customWidth="1"/>
+    <col min="6" max="6" width="57.41796875" customWidth="1"/>
+    <col min="7" max="7" width="64.68359375" customWidth="1"/>
+    <col min="8" max="8" width="65.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B349C44-6D7A-460A-BA45-9CD3238F33B9}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="43.578125" customWidth="1"/>
+    <col min="2" max="2" width="54.41796875" customWidth="1"/>
+    <col min="3" max="4" width="77.83984375" customWidth="1"/>
+    <col min="5" max="5" width="62.68359375" customWidth="1"/>
+    <col min="6" max="6" width="68.83984375" customWidth="1"/>
+    <col min="7" max="8" width="57.41796875" customWidth="1"/>
+    <col min="9" max="10" width="64.68359375" customWidth="1"/>
+    <col min="11" max="11" width="65.41796875" customWidth="1"/>
+    <col min="12" max="12" width="20.41796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>